--- a/Synthèse-Experiences/Juillet 27.xlsx
+++ b/Synthèse-Experiences/Juillet 27.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,33 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>Magnification</t>
   </si>
   <si>
-    <t>Colonne5</t>
-  </si>
-  <si>
-    <t>Colonne6</t>
-  </si>
-  <si>
-    <t>Colonne7</t>
-  </si>
-  <si>
-    <t>Colonne8</t>
-  </si>
-  <si>
-    <t>Colonne9</t>
-  </si>
-  <si>
-    <t>Colonne10</t>
-  </si>
-  <si>
     <t>Colonne11</t>
-  </si>
-  <si>
-    <t>Colonne12</t>
   </si>
   <si>
     <t>Colonne13</t>
@@ -66,13 +46,7 @@
     <t>Colonne16</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pente </t>
   </si>
   <si>
     <t>nbe scans</t>
@@ -104,12 +78,63 @@
   <si>
     <t xml:space="preserve">scans </t>
   </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>vitesse (scans/s)</t>
+  </si>
+  <si>
+    <t>Area (*10^3 nm^2)</t>
+  </si>
+  <si>
+    <t>gros trou</t>
+  </si>
+  <si>
+    <t>vitesse (s/scans)</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Pente (nm/scans)</t>
+  </si>
+  <si>
+    <t>vitesse de closure (nm/s)</t>
+  </si>
+  <si>
+    <t>area*vscan*gama^2</t>
+  </si>
+  <si>
+    <t>gamma2*area</t>
+  </si>
+  <si>
+    <t>rac area</t>
+  </si>
+  <si>
+    <t>vscan*gamma^2</t>
+  </si>
+  <si>
+    <t>CONSTANTE:</t>
+  </si>
+  <si>
+    <t>Vitesse (scan/s)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Vitesse de closure (nm/s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,16 +142,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,17 +213,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -210,7 +394,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$27</c:f>
+              <c:f>Feuil1!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +477,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$28:$D$36</c:f>
+              <c:f>Feuil1!$E$34:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -329,7 +513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$28:$E$36</c:f>
+              <c:f>Feuil1!$F$34:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -601,7 +785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$142</c:f>
+              <c:f>Feuil1!$F$148</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,7 +863,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$143:$D$155</c:f>
+              <c:f>Feuil1!$E$149:$E$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -727,7 +911,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$143:$E$155</c:f>
+              <c:f>Feuil1!$F$149:$F$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1011,7 +1195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$157</c:f>
+              <c:f>Feuil1!$F$163</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1089,7 +1273,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$158:$D$175</c:f>
+              <c:f>Feuil1!$E$164:$E$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1152,7 +1336,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$158:$E$175</c:f>
+              <c:f>Feuil1!$F$164:$F$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1451,7 +1635,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$177</c:f>
+              <c:f>Feuil1!$F$183</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1529,7 +1713,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$178:$D$219</c:f>
+              <c:f>Feuil1!$E$184:$E$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1664,7 +1848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$178:$E$219</c:f>
+              <c:f>Feuil1!$F$184:$F$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2032,7 +2216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$225</c:f>
+              <c:f>Feuil1!$F$231</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2110,7 +2294,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$226:$D$256</c:f>
+              <c:f>Feuil1!$E$232:$E$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2212,7 +2396,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$226:$E$256</c:f>
+              <c:f>Feuil1!$F$232:$F$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2550,7 +2734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$39</c:f>
+              <c:f>Feuil1!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2628,7 +2812,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$40:$D$49</c:f>
+              <c:f>Feuil1!$E$46:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2667,7 +2851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$40:$E$49</c:f>
+              <c:f>Feuil1!$F$46:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2942,7 +3126,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$51</c:f>
+              <c:f>Feuil1!$F$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3025,7 +3209,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$52:$D$68</c:f>
+              <c:f>Feuil1!$E$58:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3085,7 +3269,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$52:$E$68</c:f>
+              <c:f>Feuil1!$F$58:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3381,7 +3565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$70</c:f>
+              <c:f>Feuil1!$F$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3459,7 +3643,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$71:$D$78</c:f>
+              <c:f>Feuil1!$E$77:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3492,7 +3676,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$71:$E$78</c:f>
+              <c:f>Feuil1!$F$77:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3761,7 +3945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$80</c:f>
+              <c:f>Feuil1!$F$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3839,7 +4023,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$81:$D$91</c:f>
+              <c:f>Feuil1!$E$87:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3881,7 +4065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$81:$E$91</c:f>
+              <c:f>Feuil1!$F$87:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4159,7 +4343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$93</c:f>
+              <c:f>Feuil1!$F$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4237,7 +4421,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$94:$D$104</c:f>
+              <c:f>Feuil1!$E$100:$E$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4279,7 +4463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$94:$E$104</c:f>
+              <c:f>Feuil1!$F$100:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4557,7 +4741,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$106</c:f>
+              <c:f>Feuil1!$F$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4635,7 +4819,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$107:$D$117</c:f>
+              <c:f>Feuil1!$E$113:$E$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4677,7 +4861,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$107:$E$117</c:f>
+              <c:f>Feuil1!$F$113:$F$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4955,7 +5139,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$119</c:f>
+              <c:f>Feuil1!$F$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5033,7 +5217,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$120:$D$126</c:f>
+              <c:f>Feuil1!$E$126:$E$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5063,7 +5247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$120:$E$126</c:f>
+              <c:f>Feuil1!$F$126:$F$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5329,7 +5513,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$129</c:f>
+              <c:f>Feuil1!$F$135</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5407,7 +5591,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$130:$D$140</c:f>
+              <c:f>Feuil1!$E$136:$E$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5449,7 +5633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$130:$E$140</c:f>
+              <c:f>Feuil1!$F$136:$F$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -12903,15 +13087,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12933,15 +13117,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12963,15 +13147,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>831850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12993,15 +13177,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13023,15 +13207,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13053,15 +13237,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13083,15 +13267,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13113,15 +13297,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13143,15 +13327,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13173,15 +13357,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>831850</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13203,15 +13387,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13233,15 +13417,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13263,15 +13447,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13295,22 +13479,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:P23" totalsRowShown="0">
-  <autoFilter ref="A1:P23"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:Q24" totalsRowCount="1">
+  <autoFilter ref="A1:Q24"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Magnification"/>
-    <tableColumn id="2" name="Area"/>
+    <tableColumn id="2" name="Area (*10^3 nm^2)"/>
+    <tableColumn id="17" name="rac area" dataDxfId="7">
+      <calculatedColumnFormula>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" name="Voltage"/>
-    <tableColumn id="4" name="Pente "/>
-    <tableColumn id="5" name="Colonne5"/>
-    <tableColumn id="6" name="Colonne6"/>
-    <tableColumn id="7" name="Colonne7"/>
-    <tableColumn id="8" name="Colonne8"/>
-    <tableColumn id="9" name="Colonne9"/>
-    <tableColumn id="10" name="Colonne10"/>
-    <tableColumn id="11" name="Colonne11"/>
-    <tableColumn id="12" name="Colonne12"/>
-    <tableColumn id="13" name="Colonne13"/>
+    <tableColumn id="4" name="Pente (nm/scans)"/>
+    <tableColumn id="5" name="Position"/>
+    <tableColumn id="6" name="vitesse (s/scans)"/>
+    <tableColumn id="7" name="pauses"/>
+    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="10" totalsRowDxfId="4">
+      <calculatedColumnFormula>1/Tableau1[[#This Row],[vitesse (s/scans)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="9" totalsRowDxfId="3">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="8" totalsRowDxfId="2">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Colonne11" totalsRowFunction="custom">
+      <totalsRowFormula>0.09/0.23</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="6" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Colonne13" dataDxfId="5" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="14" name="Colonne14"/>
     <tableColumn id="15" name="Colonne15"/>
     <tableColumn id="16" name="Colonne16"/>
@@ -13596,2117 +13795,2946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="K255" sqref="K255"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="16" width="12.5" customWidth="1"/>
+    <col min="1" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="14" width="12.5" style="7" customWidth="1"/>
+    <col min="15" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>250</v>
+      </c>
+      <c r="C2">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2.36</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1.59</v>
+      </c>
+      <c r="F3">
+        <v>1.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>62.5</v>
+      </c>
+      <c r="C4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1.42</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="K4">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>15.625</v>
+      </c>
+      <c r="C5">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1.74</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>62.5</v>
+      </c>
+      <c r="C6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1.06</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="K6">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>62.5</v>
+      </c>
+      <c r="C7">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3.54</v>
+      </c>
+      <c r="F7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="K7">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4.33</v>
+      </c>
+      <c r="F8">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="K8">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5.21</v>
+      </c>
+      <c r="F9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G9">
+        <v>7.6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="J9" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.68552631578947365</v>
+      </c>
+      <c r="K9">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>27360000</v>
+      </c>
+      <c r="L9">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>3600000</v>
+      </c>
+      <c r="M9" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>5263.1578947368416</v>
+      </c>
+      <c r="N9" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>473684210.52631575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4.79</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J10" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.63866666666666672</v>
+      </c>
+      <c r="K10">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>27000000</v>
+      </c>
+      <c r="L10">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>3600000</v>
+      </c>
+      <c r="M10" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>5333.333333333333</v>
+      </c>
+      <c r="N10" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>480000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2.59</v>
+      </c>
+      <c r="F11">
+        <v>3.1</v>
+      </c>
+      <c r="G11">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="J11" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.60232558139534875</v>
+      </c>
+      <c r="K11">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>8707500</v>
+      </c>
+      <c r="L11">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>2025000</v>
+      </c>
+      <c r="M11" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>5232.5581395348836</v>
+      </c>
+      <c r="N11" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>470930232.5581395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3.61</v>
+      </c>
+      <c r="F12">
+        <v>3.2</v>
+      </c>
+      <c r="G12">
+        <v>11.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.30854700854700856</v>
+      </c>
+      <c r="K12">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>65812500</v>
+      </c>
+      <c r="L12">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>5625000</v>
+      </c>
+      <c r="M12" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>1923.0769230769231</v>
+      </c>
+      <c r="N12" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>480769230.76923078</v>
+      </c>
+      <c r="S12">
+        <f>1923*90/5232</f>
+        <v>33.079128440366972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>562.5</v>
+      </c>
+      <c r="C13">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>750</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1.93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>11.8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>8.4745762711864403E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.16355932203389828</v>
+      </c>
+      <c r="K13">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>66375000</v>
+      </c>
+      <c r="L13">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>5625000</v>
+      </c>
+      <c r="M13" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>847.45762711864404</v>
+      </c>
+      <c r="N13" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>476694915.25423729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>62.5</v>
+      </c>
+      <c r="C14">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="G14">
+        <v>5.3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="J14" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>13250000</v>
+      </c>
+      <c r="L14">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>2500000</v>
+      </c>
+      <c r="M14" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>7547.1698113207549</v>
+      </c>
+      <c r="N14" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>471698113.20754719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
+      </c>
+      <c r="C15">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E15">
+        <v>0.99</v>
+      </c>
+      <c r="F15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15">
+        <v>5.32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7">
+        <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
+        <v>0.18796992481203006</v>
+      </c>
+      <c r="J15" s="7">
+        <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
+        <v>0.18609022556390975</v>
+      </c>
+      <c r="K15">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>13300000</v>
+      </c>
+      <c r="L15">
+        <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
+        <v>2500000</v>
+      </c>
+      <c r="M15" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>1879.6992481203006</v>
+      </c>
+      <c r="N15" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>469924812.03007519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23">
+        <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I24" s="7"/>
+      <c r="K24" s="10"/>
+      <c r="L24">
+        <f>0.09/0.23</f>
+        <v>0.39130434782608692</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I25" s="7"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="M26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7">
+        <f>AVERAGE(N9:N15)</f>
+        <v>474814502.04936367</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I27" s="7"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I28" s="7"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I29" s="7"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="I30" s="7"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="7" t="e">
+        <f>AVERAGE(O14:O20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>100</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <f>500*500</f>
         <v>250000</v>
       </c>
-      <c r="C27">
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32">
+      <c r="F38">
         <v>30.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D33">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39">
         <v>20</v>
       </c>
-      <c r="E33">
+      <c r="F39">
         <v>21.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D34">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40">
         <v>22</v>
       </c>
-      <c r="E34">
+      <c r="F40">
         <v>13.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E41">
         <v>24</v>
       </c>
-      <c r="E35">
+      <c r="F41">
         <v>10.1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D36">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42">
         <v>26</v>
       </c>
-      <c r="E36">
+      <c r="F42">
         <v>8.9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D37">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>100</v>
       </c>
-      <c r="B39">
+      <c r="B45">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="C39">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E50">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <v>16</v>
-      </c>
-      <c r="E44">
+      <c r="F50">
         <v>42.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E51">
         <v>20</v>
       </c>
-      <c r="E45">
+      <c r="F51">
         <v>34.6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D46">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E52">
         <v>24</v>
       </c>
-      <c r="E46">
+      <c r="F52">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D47">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E53">
         <v>28</v>
       </c>
-      <c r="E47">
+      <c r="F53">
         <v>22.3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D48">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E54">
         <v>32</v>
       </c>
-      <c r="E48">
+      <c r="F54">
         <v>13.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D49">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E55">
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="F55">
         <v>8.9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>100</v>
       </c>
-      <c r="B51">
+      <c r="B57">
         <f>250*250</f>
         <v>62500</v>
       </c>
-      <c r="C51">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E64">
         <v>18</v>
       </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>68.099999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D57">
-        <v>15</v>
-      </c>
-      <c r="E57">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D58">
-        <v>18</v>
-      </c>
-      <c r="E58">
+      <c r="F64">
         <v>50.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D59">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E65">
         <v>21</v>
       </c>
-      <c r="E59">
+      <c r="F65">
         <v>46.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D60">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E66">
         <v>24</v>
       </c>
-      <c r="E60">
+      <c r="F66">
         <v>42.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D61">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E67">
         <v>27</v>
       </c>
-      <c r="E61">
+      <c r="F67">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D62">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E68">
         <v>30</v>
       </c>
-      <c r="E62">
+      <c r="F68">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D63">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E69">
         <v>33</v>
       </c>
-      <c r="E63">
+      <c r="F69">
         <v>26.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D64">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E70">
         <v>36</v>
       </c>
-      <c r="E64">
+      <c r="F70">
         <v>22.3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E71">
         <v>39</v>
       </c>
-      <c r="E65">
+      <c r="F71">
         <v>16.8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D66">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E72">
         <v>42</v>
       </c>
-      <c r="E66">
+      <c r="F72">
         <v>12.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D67">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E73">
         <v>45</v>
       </c>
-      <c r="E67">
+      <c r="F73">
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D68">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E74">
         <v>46</v>
       </c>
-      <c r="E68">
+      <c r="F74">
         <v>6.7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>200</v>
       </c>
-      <c r="B70">
+      <c r="B76">
         <f>125*125</f>
         <v>15625</v>
       </c>
-      <c r="C70">
+      <c r="D76">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76">
         <v>2.5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D71">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E77">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="F77">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D72">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E78">
         <v>3</v>
       </c>
-      <c r="E72">
+      <c r="F78">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D73">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E79">
         <v>7</v>
       </c>
-      <c r="E73">
+      <c r="F79">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D74">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E80">
         <v>14</v>
       </c>
-      <c r="E74">
+      <c r="F80">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D75">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E81">
         <v>19</v>
       </c>
-      <c r="E75">
+      <c r="F81">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D76">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E82">
         <v>25</v>
       </c>
-      <c r="E76">
+      <c r="F82">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D77">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E83">
         <v>32</v>
       </c>
-      <c r="E77">
+      <c r="F83">
         <v>12.3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D78">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E84">
         <v>35</v>
       </c>
-      <c r="E78">
+      <c r="F84">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>100</v>
       </c>
-      <c r="B80">
+      <c r="B86">
         <f>250*250</f>
         <v>62500</v>
       </c>
-      <c r="C80">
+      <c r="D86">
         <v>5</v>
       </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D81">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E87">
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="F87">
         <v>71.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D82">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E88">
         <v>6</v>
       </c>
-      <c r="E82">
+      <c r="F88">
         <v>61.4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D83">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E89">
         <v>12</v>
       </c>
-      <c r="E83">
+      <c r="F89">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D84">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E90">
         <v>17</v>
       </c>
-      <c r="E84">
+      <c r="F90">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D85">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E91">
         <v>22</v>
       </c>
-      <c r="E85">
+      <c r="F91">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D86">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E92">
         <v>28</v>
       </c>
-      <c r="E86">
+      <c r="F92">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D87">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E93">
         <v>34</v>
       </c>
-      <c r="E87">
+      <c r="F93">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D88">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E94">
         <v>39</v>
       </c>
-      <c r="E88">
+      <c r="F94">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D89">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E95">
         <v>45</v>
       </c>
-      <c r="E89">
+      <c r="F95">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D90">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E96">
         <v>50</v>
       </c>
-      <c r="E90">
+      <c r="F96">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D91">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E97">
         <v>58</v>
       </c>
-      <c r="E91">
+      <c r="F97">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>200</v>
       </c>
-      <c r="B93">
+      <c r="B99">
         <f>250*250</f>
         <v>62500</v>
       </c>
-      <c r="C93">
+      <c r="D99">
         <v>5</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E110">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D97">
-        <v>4</v>
-      </c>
-      <c r="E97">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D98">
-        <v>6</v>
-      </c>
-      <c r="E98">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>40.700000000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D100">
+      <c r="F110">
         <v>10</v>
       </c>
-      <c r="E100">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D101">
-        <v>11</v>
-      </c>
-      <c r="E101">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D102">
-        <v>13</v>
-      </c>
-      <c r="E102">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D103">
-        <v>14</v>
-      </c>
-      <c r="E103">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D104">
-        <v>16</v>
-      </c>
-      <c r="E104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>200</v>
       </c>
-      <c r="B106">
+      <c r="B112">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="C106">
+      <c r="D112">
         <v>5</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>13</v>
+      </c>
+      <c r="F121">
         <v>16</v>
       </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D111">
-        <v>6</v>
-      </c>
-      <c r="E111">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D112">
-        <v>8</v>
-      </c>
-      <c r="E112">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D113">
-        <v>10</v>
-      </c>
-      <c r="E113">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D114">
-        <v>12</v>
-      </c>
-      <c r="E114">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D115">
-        <v>13</v>
-      </c>
-      <c r="E115">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D116">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E122">
         <v>14</v>
       </c>
-      <c r="E116">
+      <c r="F122">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D117">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E123">
         <v>15</v>
       </c>
-      <c r="E117">
+      <c r="F123">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>200</v>
       </c>
-      <c r="B119">
+      <c r="B125">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="C119">
+      <c r="D125">
         <v>5</v>
       </c>
-      <c r="D119" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H119" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D120">
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E126">
         <v>0</v>
       </c>
-      <c r="E120">
+      <c r="F126">
         <v>67</v>
       </c>
-      <c r="H120">
+      <c r="I126">
         <v>12</v>
       </c>
-      <c r="I120">
+      <c r="J126" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D121">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E127">
         <v>2</v>
       </c>
-      <c r="E121">
+      <c r="F127">
         <v>58</v>
       </c>
-      <c r="H121">
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I121">
-        <f>I120/H120</f>
+      <c r="J127" s="7">
+        <f>J126/I126</f>
         <v>7.583333333333333</v>
       </c>
-      <c r="J121" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D122">
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E128">
         <v>4</v>
       </c>
-      <c r="E122">
+      <c r="F128">
         <v>47.5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D123">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E129">
         <v>6</v>
       </c>
-      <c r="E123">
+      <c r="F129">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D124">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E130">
         <v>8</v>
       </c>
-      <c r="E124">
+      <c r="F130">
         <v>26.2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D125">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E131">
         <v>10</v>
       </c>
-      <c r="E125">
+      <c r="F131">
         <v>11.2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D126">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E132">
         <v>12</v>
       </c>
-      <c r="E126">
+      <c r="F132">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D127">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E133">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>200</v>
       </c>
-      <c r="B129">
+      <c r="B135">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="C129">
+      <c r="D135">
         <v>5</v>
       </c>
-      <c r="D129" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129">
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135">
         <v>2.4</v>
       </c>
-      <c r="H129" t="s">
-        <v>21</v>
-      </c>
-      <c r="I129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D130">
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E136">
         <v>0</v>
       </c>
-      <c r="E130">
+      <c r="F136">
         <v>68</v>
       </c>
-      <c r="H130">
+      <c r="I136">
         <v>13</v>
       </c>
-      <c r="I130">
+      <c r="J136" s="7">
         <f>60+38</f>
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D131">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E137">
         <v>2</v>
       </c>
-      <c r="E131">
+      <c r="F137">
         <v>59.7</v>
       </c>
-      <c r="H131">
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I131">
-        <f>I130/H130</f>
+      <c r="J137" s="7">
+        <f>J136/I136</f>
         <v>7.5384615384615383</v>
       </c>
-      <c r="J131" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D132">
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E138">
         <v>3</v>
       </c>
-      <c r="E132">
+      <c r="F138">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D133">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E139">
         <v>4</v>
       </c>
-      <c r="E133">
+      <c r="F139">
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D134">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E140">
         <v>5</v>
       </c>
-      <c r="E134">
+      <c r="F140">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D135">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E141">
         <v>7</v>
       </c>
-      <c r="E135">
+      <c r="F141">
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D136">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E142">
         <v>8</v>
       </c>
-      <c r="E136">
+      <c r="F142">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D137">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E143">
         <v>9</v>
       </c>
-      <c r="E137">
+      <c r="F143">
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D138">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E144">
         <v>11</v>
       </c>
-      <c r="E138">
+      <c r="F144">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D139">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E145">
         <v>12</v>
       </c>
-      <c r="E139">
+      <c r="F145">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D140">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E146">
         <v>13</v>
       </c>
-      <c r="E140">
+      <c r="F146">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>150</v>
       </c>
-      <c r="B142">
+      <c r="B148">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="C142">
+      <c r="D148">
         <v>5</v>
       </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
-      </c>
-      <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142">
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148">
         <v>3.1</v>
       </c>
-      <c r="H142" t="s">
-        <v>21</v>
-      </c>
-      <c r="I142" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D143">
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E149">
         <v>0</v>
       </c>
-      <c r="E143">
+      <c r="F149">
         <v>67</v>
       </c>
-      <c r="H143">
+      <c r="I149">
         <v>24</v>
       </c>
-      <c r="I143">
+      <c r="J149" s="7">
         <f>60+43</f>
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D144">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E150">
         <v>2</v>
       </c>
-      <c r="E144">
+      <c r="F150">
         <v>64</v>
       </c>
-      <c r="H144">
+      <c r="I150">
         <v>1</v>
       </c>
-      <c r="I144">
-        <f>I143/H143</f>
+      <c r="J150" s="7">
+        <f>J149/I149</f>
         <v>4.291666666666667</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D145">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E151">
         <v>4</v>
       </c>
-      <c r="E145">
+      <c r="F151">
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D146">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E152">
         <v>6</v>
       </c>
-      <c r="E146">
+      <c r="F152">
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D147">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E153">
         <v>8</v>
       </c>
-      <c r="E147">
+      <c r="F153">
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D148">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E154">
         <v>10</v>
       </c>
-      <c r="E148">
+      <c r="F154">
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D149">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E155">
         <v>12</v>
       </c>
-      <c r="E149">
+      <c r="F155">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D150">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E156">
         <v>14</v>
       </c>
-      <c r="E150">
+      <c r="F156">
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D151">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E157">
         <v>15</v>
       </c>
-      <c r="E151">
+      <c r="F157">
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D152">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E158">
         <v>17</v>
       </c>
-      <c r="E152">
+      <c r="F158">
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D153">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E159">
         <v>19</v>
       </c>
-      <c r="E153">
+      <c r="F159">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D154">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E160">
         <v>22</v>
       </c>
-      <c r="E154">
+      <c r="F160">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D155">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E161">
         <v>24</v>
       </c>
-      <c r="E155">
+      <c r="F161">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>150</v>
       </c>
-      <c r="B157">
+      <c r="B163">
         <f>500*500</f>
         <v>250000</v>
       </c>
-      <c r="C157">
-        <v>5</v>
-      </c>
-      <c r="D157" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157">
-        <v>3.2</v>
-      </c>
-      <c r="H157" t="s">
-        <v>21</v>
-      </c>
-      <c r="I157" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>67</v>
-      </c>
-      <c r="H158">
-        <v>17</v>
-      </c>
-      <c r="I158">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>65.7</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159">
-        <f>I158/H158</f>
-        <v>11.705882352941176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161">
-        <v>3</v>
-      </c>
-      <c r="E161">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D162">
-        <v>4</v>
-      </c>
-      <c r="E162">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D163">
         <v>5</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163">
+        <v>3.2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>67</v>
+      </c>
+      <c r="I164">
+        <v>17</v>
+      </c>
+      <c r="J164" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>65.7</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" s="7">
+        <f>J164/I164</f>
+        <v>11.705882352941176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
         <v>52.8</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D164">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E170">
         <v>6</v>
       </c>
-      <c r="E164">
+      <c r="F170">
         <v>51.4</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D165">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E171">
         <v>7</v>
       </c>
-      <c r="E165">
+      <c r="F171">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D166">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E172">
         <v>8</v>
       </c>
-      <c r="E166">
+      <c r="F172">
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D167">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E173">
         <v>9</v>
       </c>
-      <c r="E167">
+      <c r="F173">
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D168">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E174">
         <v>10</v>
       </c>
-      <c r="E168">
+      <c r="F174">
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D169">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E175">
         <v>11</v>
       </c>
-      <c r="E169">
+      <c r="F175">
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D170">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E176">
         <v>12</v>
       </c>
-      <c r="E170">
+      <c r="F176">
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D171">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E177">
         <v>13</v>
       </c>
-      <c r="E171">
+      <c r="F177">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D172">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E178">
         <v>14</v>
       </c>
-      <c r="E172">
+      <c r="F178">
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D173">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E179">
         <v>15</v>
       </c>
-      <c r="E173">
+      <c r="F179">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D174">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E180">
         <v>16</v>
       </c>
-      <c r="E174">
+      <c r="F180">
         <v>9.6</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D175">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E181">
         <v>17</v>
       </c>
-      <c r="E175">
+      <c r="F181">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183">
         <v>100</v>
       </c>
-      <c r="B177">
+      <c r="B183">
         <f>750*750</f>
         <v>562500</v>
       </c>
-      <c r="C177">
+      <c r="D183">
         <v>5</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" t="s">
         <v>16</v>
       </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" t="s">
-        <v>25</v>
-      </c>
-      <c r="I177" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D178">
+      <c r="J183" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E184">
         <v>0</v>
       </c>
-      <c r="H178">
+      <c r="I184">
         <v>107</v>
       </c>
-      <c r="I178">
+      <c r="J184" s="7">
         <f>21*60+1</f>
         <v>1261</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D179">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E185">
         <v>1</v>
       </c>
-      <c r="E179">
+      <c r="F185">
         <v>200</v>
       </c>
-      <c r="H179">
+      <c r="I185">
         <v>1</v>
       </c>
-      <c r="I179">
-        <f>I178/H178</f>
+      <c r="J185" s="7">
+        <f>J184/I184</f>
         <v>11.785046728971963</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D180">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E186">
         <v>2</v>
       </c>
-      <c r="E180">
+      <c r="F186">
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D181">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E187">
         <v>12</v>
       </c>
-      <c r="E181">
+      <c r="F187">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D182">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E188">
         <v>18</v>
       </c>
-      <c r="E182">
+      <c r="F188">
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D183">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E189">
         <v>22</v>
       </c>
-      <c r="E183">
+      <c r="F189">
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D184">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E190">
         <v>27</v>
       </c>
-      <c r="E184">
+      <c r="F190">
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D185">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E191">
         <v>32</v>
       </c>
-      <c r="E185">
+      <c r="F191">
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D186">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E192">
         <v>39</v>
       </c>
-      <c r="E186">
+      <c r="F192">
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D187">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E193">
         <v>45</v>
       </c>
-      <c r="E187">
+      <c r="F193">
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D188">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E194">
         <v>50</v>
       </c>
-      <c r="E188">
+      <c r="F194">
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D189">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195">
         <v>55</v>
       </c>
-      <c r="E189">
+      <c r="F195">
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D190">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E196">
         <v>60</v>
       </c>
-      <c r="E190">
+      <c r="F196">
         <v>94</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D191">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E197">
         <v>65</v>
       </c>
-      <c r="E191">
+      <c r="F197">
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D192">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E198">
         <v>67</v>
       </c>
-      <c r="E192">
+      <c r="F198">
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D193">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E199">
         <v>69</v>
       </c>
-      <c r="E193">
+      <c r="F199">
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D194">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E200">
         <v>71</v>
       </c>
-      <c r="E194">
+      <c r="F200">
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D195">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E201">
         <v>73</v>
       </c>
-      <c r="E195">
+      <c r="F201">
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D196">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E202">
         <v>75</v>
       </c>
-      <c r="E196">
+      <c r="F202">
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D197">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E203">
         <v>76</v>
       </c>
-      <c r="E197">
+      <c r="F203">
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D198">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E204">
         <v>78</v>
       </c>
-      <c r="E198">
+      <c r="F204">
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D199">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E205">
         <v>80</v>
       </c>
-      <c r="E199">
+      <c r="F205">
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D200">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E206">
         <v>82</v>
       </c>
-      <c r="E200">
+      <c r="F206">
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D201">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E207">
         <v>84</v>
       </c>
-      <c r="E201">
+      <c r="F207">
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D202">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E208">
         <v>85</v>
       </c>
-      <c r="E202">
+      <c r="F208">
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D203">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E209">
         <v>86</v>
       </c>
-      <c r="E203">
+      <c r="F209">
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D204">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E210">
         <v>87</v>
       </c>
-      <c r="E204">
+      <c r="F210">
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D205">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E211">
         <v>88</v>
       </c>
-      <c r="E205">
+      <c r="F211">
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D206">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E212">
         <v>89</v>
       </c>
-      <c r="E206">
+      <c r="F212">
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D207">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E213">
         <v>90</v>
       </c>
-      <c r="E207">
+      <c r="F213">
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D208">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E214">
         <v>91</v>
       </c>
-      <c r="E208">
+      <c r="F214">
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D209">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E215">
         <v>92</v>
       </c>
-      <c r="E209">
+      <c r="F215">
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D210">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E216">
         <v>93</v>
       </c>
-      <c r="E210">
+      <c r="F216">
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D211">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E217">
         <v>94</v>
       </c>
-      <c r="E211">
+      <c r="F217">
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D212">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E218">
         <v>95</v>
       </c>
-      <c r="E212">
+      <c r="F218">
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D213">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E219">
         <v>96</v>
       </c>
-      <c r="E213">
+      <c r="F219">
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D214">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E220">
         <v>97</v>
       </c>
-      <c r="E214">
+      <c r="F220">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D215">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E221">
         <v>98</v>
       </c>
-      <c r="E215">
+      <c r="F221">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D216">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E222">
         <v>99</v>
       </c>
-      <c r="E216">
+      <c r="F222">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D217">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E223">
         <v>100</v>
       </c>
-      <c r="E217">
+      <c r="F223">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D218">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E224">
         <v>101</v>
       </c>
-      <c r="E218">
+      <c r="F224">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D219">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E225">
         <v>102</v>
       </c>
-      <c r="E219">
+      <c r="F225">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227">
         <v>200</v>
       </c>
-      <c r="B221">
+      <c r="B227">
         <f>250*250</f>
         <v>62500</v>
       </c>
-      <c r="C221">
+      <c r="D227">
         <v>5</v>
       </c>
-      <c r="G221" t="s">
-        <v>16</v>
-      </c>
-      <c r="H221" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G222">
+      <c r="H227" t="s">
+        <v>7</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H228">
         <v>20</v>
       </c>
-      <c r="H222">
+      <c r="I228">
         <v>106</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G223">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H229">
         <v>1</v>
       </c>
-      <c r="H223">
-        <f>H222/G222</f>
+      <c r="I229">
+        <f>I228/H228</f>
         <v>5.3</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231">
         <v>100</v>
       </c>
-      <c r="B225">
+      <c r="B231">
         <f>500*500</f>
         <v>250000</v>
       </c>
-      <c r="C225">
+      <c r="D231">
         <v>10</v>
       </c>
-      <c r="D225" t="s">
-        <v>16</v>
-      </c>
-      <c r="E225" t="s">
-        <v>18</v>
-      </c>
-      <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225">
+      <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H225" t="s">
-        <v>16</v>
-      </c>
-      <c r="I225" t="s">
+      <c r="I231" t="s">
+        <v>7</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>67</v>
+      </c>
+      <c r="I232">
+        <v>66</v>
+      </c>
+      <c r="J232" s="7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>62</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" s="7">
+        <f>J232/I232</f>
+        <v>5.3181818181818183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E237">
+        <v>9</v>
+      </c>
+      <c r="F237">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E238">
+        <v>11</v>
+      </c>
+      <c r="F238">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E239">
+        <v>13</v>
+      </c>
+      <c r="F239">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E240">
+        <v>15</v>
+      </c>
+      <c r="F240">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E241">
+        <v>17</v>
+      </c>
+      <c r="F241">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E242">
+        <v>19</v>
+      </c>
+      <c r="F242">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E243">
+        <v>21</v>
+      </c>
+      <c r="F243">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E244">
         <v>22</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
-        <v>67</v>
-      </c>
-      <c r="H226">
-        <v>66</v>
-      </c>
-      <c r="I226">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="E227">
-        <v>62</v>
-      </c>
-      <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <f>I226/H226</f>
-        <v>5.3181818181818183</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D228">
-        <v>4</v>
-      </c>
-      <c r="E228">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229">
+      <c r="F244">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E245">
+        <v>24</v>
+      </c>
+      <c r="F245">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E246">
+        <v>27</v>
+      </c>
+      <c r="F246">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E247">
+        <v>29</v>
+      </c>
+      <c r="F247">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E248">
+        <v>31</v>
+      </c>
+      <c r="F248">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E249">
+        <v>33</v>
+      </c>
+      <c r="F249">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E250">
+        <v>35</v>
+      </c>
+      <c r="F250">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E251">
+        <v>37</v>
+      </c>
+      <c r="F251">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E252">
+        <v>40</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E253">
+        <v>42</v>
+      </c>
+      <c r="F253">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E254">
+        <v>44</v>
+      </c>
+      <c r="F254">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E255">
+        <v>46</v>
+      </c>
+      <c r="F255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E256">
+        <v>48</v>
+      </c>
+      <c r="F256">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E257">
+        <v>49</v>
+      </c>
+      <c r="F257">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>51</v>
+      </c>
+      <c r="F258">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>54</v>
+      </c>
+      <c r="F259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>56</v>
+      </c>
+      <c r="F260">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E261">
+        <v>58</v>
+      </c>
+      <c r="F261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E262">
         <v>60</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D230">
-        <v>7</v>
-      </c>
-      <c r="E230">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D231">
-        <v>9</v>
-      </c>
-      <c r="E231">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D232">
-        <v>11</v>
-      </c>
-      <c r="E232">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D233">
-        <v>13</v>
-      </c>
-      <c r="E233">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D234">
-        <v>15</v>
-      </c>
-      <c r="E234">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D235">
-        <v>17</v>
-      </c>
-      <c r="E235">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D236">
-        <v>19</v>
-      </c>
-      <c r="E236">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D237">
-        <v>21</v>
-      </c>
-      <c r="E237">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D238">
-        <v>22</v>
-      </c>
-      <c r="E238">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D239">
-        <v>24</v>
-      </c>
-      <c r="E239">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D240">
-        <v>27</v>
-      </c>
-      <c r="E240">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D241">
-        <v>29</v>
-      </c>
-      <c r="E241">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D242">
-        <v>31</v>
-      </c>
-      <c r="E242">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D243">
-        <v>33</v>
-      </c>
-      <c r="E243">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D244">
-        <v>35</v>
-      </c>
-      <c r="E244">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D245">
-        <v>37</v>
-      </c>
-      <c r="E245">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D246">
-        <v>40</v>
-      </c>
-      <c r="E246">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D247">
-        <v>42</v>
-      </c>
-      <c r="E247">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D248">
-        <v>44</v>
-      </c>
-      <c r="E248">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D249">
-        <v>46</v>
-      </c>
-      <c r="E249">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D250">
-        <v>48</v>
-      </c>
-      <c r="E250">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D251">
-        <v>49</v>
-      </c>
-      <c r="E251">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D252">
-        <v>51</v>
-      </c>
-      <c r="E252">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D253">
-        <v>54</v>
-      </c>
-      <c r="E253">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D254">
-        <v>56</v>
-      </c>
-      <c r="E254">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D255">
-        <v>58</v>
-      </c>
-      <c r="E255">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D256">
-        <v>60</v>
-      </c>
-      <c r="E256">
+      <c r="F262">
         <v>7</v>
       </c>
     </row>
@@ -15717,4 +16745,551 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>$B$18/A2^2/B2^2</f>
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8">
+        <f>D2*F2</f>
+        <v>0.4482248899345993</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F15" si="0">$B$18/A3^2/B3^2</f>
+        <v>0.52757166894373742</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H15" si="1">D3*F3</f>
+        <v>0.8388389536205425</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0787785486561543</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>125</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3218835737054284</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80528539547572087</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>200</v>
+      </c>
+      <c r="B7" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.67233733490189895</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>200</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.33</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.57109633163159579</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68716209879921797</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>200</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63176707356012551</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>150</v>
+      </c>
+      <c r="B11" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>300</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23447629730832772</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.60729361002856874</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>150</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30472539598190274</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>100</v>
+      </c>
+      <c r="B13" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>750</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1629141313698261</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>200</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>250</v>
+      </c>
+      <c r="C14" s="14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>100</v>
+      </c>
+      <c r="B15" s="6">
+        <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
+        <v>500</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.18802654281154801</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>474814502.04936367</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Synthèse-Experiences/Juillet 27.xlsx
+++ b/Synthèse-Experiences/Juillet 27.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Magnification</t>
+  </si>
+  <si>
+    <t>Colonne9</t>
+  </si>
+  <si>
+    <t>Colonne10</t>
   </si>
   <si>
     <t>Colonne11</t>
@@ -124,10 +131,31 @@
     <t>Vitesse (scan/s)</t>
   </si>
   <si>
-    <t>L</t>
+    <t>Vitesse de closure (nm/s)</t>
   </si>
   <si>
-    <t>Vitesse de closure (nm/s)</t>
+    <t>L (nm)</t>
+  </si>
+  <si>
+    <t>Voltage (kV)</t>
+  </si>
+  <si>
+    <t>Magnification (K)</t>
+  </si>
+  <si>
+    <t>Vitesse de closure (nm/scans)</t>
+  </si>
+  <si>
+    <t>Pauses</t>
+  </si>
+  <si>
+    <t>Scan speed (scan/s)</t>
+  </si>
+  <si>
+    <t>Closure Speed (nm/s)</t>
+  </si>
+  <si>
+    <t>Closure speed (nm/scan)</t>
   </si>
 </sst>
 </file>
@@ -271,30 +299,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -13484,7 +13550,7 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Magnification"/>
     <tableColumn id="2" name="Area (*10^3 nm^2)"/>
-    <tableColumn id="17" name="rac area" dataDxfId="7">
+    <tableColumn id="17" name="rac area" dataDxfId="9">
       <calculatedColumnFormula>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Voltage"/>
@@ -13492,27 +13558,47 @@
     <tableColumn id="5" name="Position"/>
     <tableColumn id="6" name="vitesse (s/scans)"/>
     <tableColumn id="7" name="pauses"/>
-    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="12" totalsRowDxfId="6">
       <calculatedColumnFormula>1/Tableau1[[#This Row],[vitesse (s/scans)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="9" totalsRowDxfId="3">
+    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="11" totalsRowDxfId="5">
       <calculatedColumnFormula>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="10" totalsRowDxfId="4">
       <calculatedColumnFormula>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Colonne11" totalsRowFunction="custom">
       <totalsRowFormula>0.09/0.23</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Colonne13" dataDxfId="5" totalsRowDxfId="0">
+    <tableColumn id="13" name="Colonne13" dataDxfId="7" totalsRowDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="Colonne14"/>
     <tableColumn id="15" name="Colonne15"/>
     <tableColumn id="16" name="Colonne16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:K21" totalsRowShown="0">
+  <autoFilter ref="A1:K21"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Magnification (K)"/>
+    <tableColumn id="2" name="L (nm)"/>
+    <tableColumn id="3" name="Voltage (kV)"/>
+    <tableColumn id="4" name="Closure speed (nm/scan)"/>
+    <tableColumn id="5" name="Position"/>
+    <tableColumn id="6" name="Scan speed (scan/s)" dataDxfId="1"/>
+    <tableColumn id="7" name="Pauses"/>
+    <tableColumn id="8" name="Closure Speed (nm/s)" dataDxfId="0"/>
+    <tableColumn id="9" name="Colonne9"/>
+    <tableColumn id="10" name="Colonne10"/>
+    <tableColumn id="11" name="Colonne11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13807,10 +13893,10 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="14" width="12.5" style="7" customWidth="1"/>
+    <col min="13" max="14" width="12.5" style="1" customWidth="1"/>
     <col min="15" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13819,52 +13905,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -13888,21 +13974,21 @@
         <v>1.2</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="K2">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="7">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -13928,18 +14014,18 @@
         <v>1.3</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="K3">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -13965,18 +14051,18 @@
         <v>1.4</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="K4">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14002,18 +14088,18 @@
         <v>2.5</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="K5">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14039,18 +14125,18 @@
         <v>1.5</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="K6">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14076,18 +14162,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="K7">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14113,18 +14199,18 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="K8">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14153,13 +14239,13 @@
         <v>7.6</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>0.13157894736842105</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.68552631578947365</v>
       </c>
@@ -14171,11 +14257,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>3600000</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>5263.1578947368416</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>473684210.52631575</v>
       </c>
@@ -14204,13 +14290,13 @@
         <v>7.5</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.63866666666666672</v>
       </c>
@@ -14222,11 +14308,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>3600000</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>5333.333333333333</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>480000000</v>
       </c>
@@ -14255,13 +14341,13 @@
         <v>4.3</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.60232558139534875</v>
       </c>
@@ -14273,11 +14359,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>2025000</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>5232.5581395348836</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>470930232.5581395</v>
       </c>
@@ -14306,13 +14392,13 @@
         <v>11.7</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>8.5470085470085472E-2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.30854700854700856</v>
       </c>
@@ -14324,11 +14410,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>5625000</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>1923.0769230769231</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>480769230.76923078</v>
       </c>
@@ -14355,19 +14441,19 @@
         <v>1.93</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>11.8</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.16355932203389828</v>
       </c>
@@ -14379,11 +14465,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>5625000</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>847.45762711864404</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>476694915.25423729</v>
       </c>
@@ -14403,19 +14489,19 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>5.3</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>0.18867924528301888</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0</v>
       </c>
@@ -14427,11 +14513,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>2500000</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>7547.1698113207549</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>471698113.20754719</v>
       </c>
@@ -14460,13 +14546,13 @@
         <v>5.32</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="7">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
         <v>0.18796992481203006</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="1">
         <f>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</f>
         <v>0.18609022556390975</v>
       </c>
@@ -14478,11 +14564,11 @@
         <f>Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Magnification]]*Tableau1[[#This Row],[Area (*10^3 nm^2)]]</f>
         <v>2500000</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>1879.6992481203006</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>469924812.03007519</v>
       </c>
@@ -14492,16 +14578,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="1"/>
       <c r="K16">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14511,16 +14597,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="1"/>
       <c r="K17">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14530,16 +14616,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="1"/>
       <c r="K18">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14549,16 +14635,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="1"/>
       <c r="K19">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14568,16 +14654,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="1"/>
       <c r="K20">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14587,16 +14673,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="1"/>
       <c r="K21">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14606,16 +14692,16 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="1"/>
       <c r="K22">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
@@ -14625,64 +14711,64 @@
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="1"/>
       <c r="K23">
         <f>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="1">
         <f>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I24" s="7"/>
-      <c r="K24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="2"/>
       <c r="L24">
         <f>0.09/0.23</f>
         <v>0.39130434782608692</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I25" s="7"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I26" s="7"/>
-      <c r="K26" s="10"/>
-      <c r="M26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="I26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="1">
         <f>AVERAGE(N9:N15)</f>
         <v>474814502.04936367</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I27" s="7"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I28" s="7"/>
-      <c r="K28" s="10"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I29" s="7"/>
-      <c r="K29" s="10"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="I30" s="7"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="N31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="7" t="e">
+      <c r="N31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="1" t="e">
         <f>AVERAGE(O14:O20)</f>
         <v>#DIV/0!</v>
       </c>
@@ -14699,10 +14785,10 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -14794,10 +14880,10 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -14892,13 +14978,13 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -15049,13 +15135,13 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H76">
         <v>2.5</v>
@@ -15137,13 +15223,13 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H86">
         <v>1.5</v>
@@ -15249,13 +15335,13 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H99">
         <v>2.2000000000000002</v>
@@ -15361,13 +15447,13 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H112">
         <v>2.1</v>
@@ -15473,22 +15559,22 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H125">
         <v>2.2999999999999998</v>
       </c>
       <c r="I125" t="s">
-        <v>12</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -15501,7 +15587,7 @@
       <c r="I126">
         <v>12</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="1">
         <v>91</v>
       </c>
     </row>
@@ -15515,12 +15601,12 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127" s="7">
+      <c r="J127" s="1">
         <f>J126/I126</f>
         <v>7.583333333333333</v>
       </c>
       <c r="K127" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -15580,22 +15666,22 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H135">
         <v>2.4</v>
       </c>
       <c r="I135" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -15608,7 +15694,7 @@
       <c r="I136">
         <v>13</v>
       </c>
-      <c r="J136" s="7">
+      <c r="J136" s="1">
         <f>60+38</f>
         <v>98</v>
       </c>
@@ -15623,12 +15709,12 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137" s="7">
+      <c r="J137" s="1">
         <f>J136/I136</f>
         <v>7.5384615384615383</v>
       </c>
       <c r="K137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -15715,22 +15801,22 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H148">
         <v>3.1</v>
       </c>
       <c r="I148" t="s">
-        <v>12</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -15743,7 +15829,7 @@
       <c r="I149">
         <v>24</v>
       </c>
-      <c r="J149" s="7">
+      <c r="J149" s="1">
         <f>60+43</f>
         <v>103</v>
       </c>
@@ -15758,7 +15844,7 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150" s="7">
+      <c r="J150" s="1">
         <f>J149/I149</f>
         <v>4.291666666666667</v>
       </c>
@@ -15863,22 +15949,22 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H163">
         <v>3.2</v>
       </c>
       <c r="I163" t="s">
-        <v>12</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -15891,7 +15977,7 @@
       <c r="I164">
         <v>17</v>
       </c>
-      <c r="J164" s="7">
+      <c r="J164" s="1">
         <v>199</v>
       </c>
     </row>
@@ -15905,7 +15991,7 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165" s="7">
+      <c r="J165" s="1">
         <f>J164/I164</f>
         <v>11.705882352941176</v>
       </c>
@@ -16050,19 +16136,19 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G183" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I183" t="s">
-        <v>16</v>
-      </c>
-      <c r="J183" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -16072,7 +16158,7 @@
       <c r="I184">
         <v>107</v>
       </c>
-      <c r="J184" s="7">
+      <c r="J184" s="1">
         <f>21*60+1</f>
         <v>1261</v>
       </c>
@@ -16087,7 +16173,7 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185" s="7">
+      <c r="J185" s="1">
         <f>J184/I184</f>
         <v>11.785046728971963</v>
       </c>
@@ -16424,10 +16510,10 @@
         <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I227" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -16459,22 +16545,22 @@
         <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H231">
         <v>4.0999999999999996</v>
       </c>
       <c r="I231" t="s">
-        <v>7</v>
-      </c>
-      <c r="J231" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -16487,7 +16573,7 @@
       <c r="I232">
         <v>66</v>
       </c>
-      <c r="J232" s="7">
+      <c r="J232" s="1">
         <v>351</v>
       </c>
     </row>
@@ -16501,7 +16587,7 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233" s="7">
+      <c r="J233" s="1">
         <f>J232/I232</f>
         <v>5.3181818181818183</v>
       </c>
@@ -16751,455 +16837,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="17.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="11.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="16.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="22.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>100</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>500</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>2.36</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>1.2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>$B$18/A2^2/B2^2</f>
         <v>0.18992580081974547</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9">
         <f>D2*F2</f>
         <v>0.4482248899345993</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>100</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>300</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="11">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <v>1.59</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>1.3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f t="shared" ref="F3:F15" si="0">$B$18/A3^2/B3^2</f>
         <v>0.52757166894373742</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H15" si="1">D3*F3</f>
         <v>0.8388389536205425</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>250</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>1.42</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>1.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>0.75970320327898189</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" si="1"/>
         <v>1.0787785486561543</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>200</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>125</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>1.74</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>2.5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.75970320327898189</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>1.3218835737054284</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>100</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>250</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>1.06</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>1.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.75970320327898189</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>0.80528539547572087</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>200</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>250</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>3.54</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0.18992580081974547</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>0.67233733490189895</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>300</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>4.33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>2.1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>0.13189291723593435</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>0.57109633163159579</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>200</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>300</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>5.21</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0.13189291723593435</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>0.68716209879921797</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>200</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>300</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>4.79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>2.4</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0.13189291723593435</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>0.63176707356012551</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>150</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>300</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>2.59</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <v>3.1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0.23447629730832772</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>0.60729361002856874</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>150</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>3.61</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>3.2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>8.4411467030997986E-2</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>0.30472539598190274</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="10">
         <v>100</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>750</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>1.93</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>8.4411467030997986E-2</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>0.1629141313698261</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>200</v>
       </c>
@@ -17212,14 +17306,14 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0.18992580081974547</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -17229,67 +17323,504 @@
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <v>100</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="11">
         <f>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</f>
         <v>500</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="11">
         <v>10</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="11">
         <v>0.99</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0.18992580081974547</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>0.18802654281154801</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6">
         <v>474814502.04936367</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="9"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="9"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="9"/>
+      <c r="E24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2.36</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.4482248899345993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1.59</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52757166894373742</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.8388389536205425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1.42</v>
+      </c>
+      <c r="E4">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0787785486561543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1.74</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.3218835737054284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1.06</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.80528539547572087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3.54</v>
+      </c>
+      <c r="E7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.67233733490189895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4.33</v>
+      </c>
+      <c r="E8">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.57109633163159579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5.21</v>
+      </c>
+      <c r="E9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.68716209879921797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4.79</v>
+      </c>
+      <c r="E10">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.63176707356012551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2.59</v>
+      </c>
+      <c r="E11">
+        <v>3.1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.23447629730832772</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.60729361002856874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3.61</v>
+      </c>
+      <c r="E12">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.30472539598190274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>750</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1.93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.1629141313698261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.99</v>
+      </c>
+      <c r="E15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.18802654281154801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Synthèse-Experiences/Juillet 27.xlsx
+++ b/Synthèse-Experiences/Juillet 27.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
   <si>
     <t>Magnification</t>
   </si>
@@ -354,12 +354,47 @@
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -2696,6 +2731,1290 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-2107411792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Closure Speed in function of length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> of the area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure speed (nm/scan)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure Speed (nm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.838838953620542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.607293610028569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.571096331631596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.687162098799218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.631767073560125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2085742512"/>
+        <c:axId val="-2083724720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2085742512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083724720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2083724720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2085742512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure Speed (nm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.527571668943737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.234476297308328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.838838953620542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.607293610028569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.571096331631596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.687162098799218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.631767073560125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure speed (nm/scan)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.527571668943737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.234476297308328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2083132560"/>
+        <c:axId val="-2085291312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2083132560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Scan speed (scan/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2085291312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2085291312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Closure</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083132560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure Speed (nm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.838838953620542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.607293610028569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.571096331631596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.687162098799218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.631767073560125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2087572832"/>
+        <c:axId val="-2080513072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2087572832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080513072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2080513072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087572832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6121,6 +7440,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8506,6 +9945,1554 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13544,13 +16531,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:Q24" totalsRowCount="1">
   <autoFilter ref="A1:Q24"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Magnification"/>
     <tableColumn id="2" name="Area (*10^3 nm^2)"/>
-    <tableColumn id="17" name="rac area" dataDxfId="9">
+    <tableColumn id="17" name="rac area" dataDxfId="20">
       <calculatedColumnFormula>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Voltage"/>
@@ -13558,22 +16640,22 @@
     <tableColumn id="5" name="Position"/>
     <tableColumn id="6" name="vitesse (s/scans)"/>
     <tableColumn id="7" name="pauses"/>
-    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="12" totalsRowDxfId="6">
+    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="23" totalsRowDxfId="17">
       <calculatedColumnFormula>1/Tableau1[[#This Row],[vitesse (s/scans)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="11" totalsRowDxfId="5">
+    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="22" totalsRowDxfId="16">
       <calculatedColumnFormula>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="21" totalsRowDxfId="15">
       <calculatedColumnFormula>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Colonne11" totalsRowFunction="custom">
       <totalsRowFormula>0.09/0.23</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="19" totalsRowDxfId="14">
       <calculatedColumnFormula>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Colonne13" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="13" name="Colonne13" dataDxfId="18" totalsRowDxfId="13">
       <calculatedColumnFormula>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="Colonne14"/>
@@ -13585,20 +16667,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:K21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:K21">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="300"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A4:K11">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Magnification (K)"/>
-    <tableColumn id="2" name="L (nm)"/>
-    <tableColumn id="3" name="Voltage (kV)"/>
-    <tableColumn id="4" name="Closure speed (nm/scan)"/>
-    <tableColumn id="5" name="Position"/>
-    <tableColumn id="6" name="Scan speed (scan/s)" dataDxfId="1"/>
-    <tableColumn id="7" name="Pauses"/>
-    <tableColumn id="8" name="Closure Speed (nm/s)" dataDxfId="0"/>
-    <tableColumn id="9" name="Colonne9"/>
-    <tableColumn id="10" name="Colonne10"/>
-    <tableColumn id="11" name="Colonne11"/>
+    <tableColumn id="1" name="Magnification (K)" dataDxfId="12"/>
+    <tableColumn id="2" name="L (nm)" dataDxfId="11"/>
+    <tableColumn id="3" name="Voltage (kV)" dataDxfId="10"/>
+    <tableColumn id="4" name="Closure speed (nm/scan)" dataDxfId="9"/>
+    <tableColumn id="5" name="Position" dataDxfId="8"/>
+    <tableColumn id="6" name="Scan speed (scan/s)" dataDxfId="7"/>
+    <tableColumn id="7" name="Pauses" dataDxfId="6"/>
+    <tableColumn id="8" name="Closure Speed (nm/s)" dataDxfId="5"/>
+    <tableColumn id="9" name="Colonne9" dataDxfId="4"/>
+    <tableColumn id="10" name="Colonne10" dataDxfId="3"/>
+    <tableColumn id="11" name="Colonne11" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17394,433 +20490,423 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1.0787785486561543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6">
+        <v>250</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.80528539547572087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6">
+        <v>300</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.52757166894373742</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.8388389536205425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6">
+        <v>125</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.75970320327898189</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1.3218835737054284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D6" s="6">
         <v>2.36</v>
       </c>
-      <c r="E2">
+      <c r="E6" s="6">
         <v>1.2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F6" s="17">
         <v>0.18992580081974547</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H6" s="17">
         <v>0.4482248899345993</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>200</v>
+      </c>
+      <c r="B7" s="6">
+        <v>250</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.67233733490189895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>150</v>
+      </c>
+      <c r="B8" s="6">
+        <v>300</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.59</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.23447629730832772</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.60729361002856874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6">
+        <v>300</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.57109633163159579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>200</v>
+      </c>
+      <c r="B10" s="6">
+        <v>300</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.68716209879921797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>200</v>
+      </c>
+      <c r="B11" s="6">
+        <v>300</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.13189291723593435</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.63176707356012551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>150</v>
+      </c>
+      <c r="B12" s="6">
+        <v>500</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.61</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.30472539598190274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
+      <c r="B13" s="6">
+        <v>500</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.18992580081974547</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.18802654281154801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>100</v>
+      </c>
+      <c r="B14" s="6">
+        <v>750</v>
+      </c>
+      <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1.59</v>
-      </c>
-      <c r="E3">
-        <v>1.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.52757166894373742</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D14" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="17">
+        <v>8.4411467030997986E-2</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.8388389536205425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1.42</v>
-      </c>
-      <c r="E4">
-        <v>1.4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.75970320327898189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.0787785486561543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5">
-        <v>125</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1.74</v>
-      </c>
-      <c r="E5">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.75970320327898189</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.3218835737054284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1.06</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.75970320327898189</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.80528539547572087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>200</v>
-      </c>
-      <c r="B7">
-        <v>250</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3.54</v>
-      </c>
-      <c r="E7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.18992580081974547</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.67233733490189895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>200</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4.33</v>
-      </c>
-      <c r="E8">
-        <v>2.1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.13189291723593435</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.57109633163159579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5.21</v>
-      </c>
-      <c r="E9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.13189291723593435</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.68716209879921797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>200</v>
-      </c>
-      <c r="B10">
-        <v>300</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>4.79</v>
-      </c>
-      <c r="E10">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.13189291723593435</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.63176707356012551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>150</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2.59</v>
-      </c>
-      <c r="E11">
-        <v>3.1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.23447629730832772</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.60729361002856874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>150</v>
-      </c>
-      <c r="B12">
-        <v>500</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>3.61</v>
-      </c>
-      <c r="E12">
-        <v>3.2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8.4411467030997986E-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.30472539598190274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>750</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1.93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8.4411467030997986E-2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="H14" s="17">
         <v>0.1629141313698261</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>200</v>
-      </c>
-      <c r="B14">
-        <v>250</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.18992580081974547</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>500</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0.99</v>
-      </c>
-      <c r="E15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.18992580081974547</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.18802654281154801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="1"/>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="6:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="6:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="6:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="6:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="6:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Synthèse-Experiences/Juillet 27.xlsx
+++ b/Synthèse-Experiences/Juillet 27.xlsx
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>Magnification</t>
-  </si>
-  <si>
-    <t>Colonne9</t>
-  </si>
-  <si>
-    <t>Colonne10</t>
   </si>
   <si>
     <t>Colonne11</t>
@@ -354,16 +348,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -2900,21 +2885,45 @@
               <c:f>Feuil4!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>300.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,21 +2933,45 @@
               <c:f>Feuil4!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.59</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.59</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>4.33</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>5.21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,21 +3019,45 @@
               <c:f>Feuil4!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>300.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,21 +3067,45 @@
               <c:f>Feuil4!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.078778548656154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.805285395475721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.838838953620542</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448224889934599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672337334901899</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.607293610028569</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.571096331631596</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.687162098799218</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.631767073560125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.304725395981903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.188026542811548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.162914131369826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,21 +3385,45 @@
               <c:f>Feuil4!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.527571668943737</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.234476297308328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.131892917235934</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.131892917235934</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.084411467030998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.084411467030998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,21 +3433,45 @@
               <c:f>Feuil4!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.078778548656154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.805285395475721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.838838953620542</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448224889934599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672337334901899</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.607293610028569</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.571096331631596</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.687162098799218</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.631767073560125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.304725395981903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.188026542811548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.162914131369826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3390,21 +3519,45 @@
               <c:f>Feuil4!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.527571668943737</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.234476297308328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.131892917235934</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.131892917235934</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.084411467030998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.084411467030998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,21 +3567,45 @@
               <c:f>Feuil4!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.59</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.59</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>4.33</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>5.21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,20 +4015,35 @@
               <c:f>Feuil4!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3862,20 +4054,35 @@
               <c:f>Feuil4!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.078778548656154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.805285395475721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.838838953620542</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448224889934599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672337334901899</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.607293610028569</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0.571096331631596</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.687162098799218</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.631767073560125</c:v>
                 </c:pt>
               </c:numCache>
@@ -3901,20 +4108,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Magnification</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3977,6 +4226,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4026,6 +4306,490 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closure Speed (nm/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil4!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.527571668943737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189925800819745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.234476297308328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.131892917235934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil4!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.078778548656154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.805285395475721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.838838953620542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.448224889934599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672337334901899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.607293610028569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.571096331631596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.687162098799218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.631767073560125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2053582112"/>
+        <c:axId val="-2082838112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2053582112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>scan speed (scan/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082838112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2082838112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053582112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7560,6 +8324,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11493,6 +12297,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16535,16 +17855,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>652640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16565,16 +17885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215195</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>659695</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16595,16 +17915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265093</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>630961</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166511</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16623,6 +17943,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231978</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16632,7 +17982,7 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Magnification"/>
     <tableColumn id="2" name="Area (*10^3 nm^2)"/>
-    <tableColumn id="17" name="rac area" dataDxfId="20">
+    <tableColumn id="17" name="rac area" dataDxfId="17">
       <calculatedColumnFormula>SQRT(Tableau1[[#This Row],[Area (*10^3 nm^2)]]*1000)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Voltage"/>
@@ -16640,22 +17990,22 @@
     <tableColumn id="5" name="Position"/>
     <tableColumn id="6" name="vitesse (s/scans)"/>
     <tableColumn id="7" name="pauses"/>
-    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="23" totalsRowDxfId="17">
+    <tableColumn id="8" name="vitesse (scans/s)" dataDxfId="20" totalsRowDxfId="14">
       <calculatedColumnFormula>1/Tableau1[[#This Row],[vitesse (s/scans)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="22" totalsRowDxfId="16">
+    <tableColumn id="9" name="vitesse de closure (nm/s)" dataDxfId="19" totalsRowDxfId="13">
       <calculatedColumnFormula>Tableau1[[#This Row],[Pente (nm/scans)]]*Tableau1[[#This Row],[vitesse (scans/s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="21" totalsRowDxfId="15">
+    <tableColumn id="10" name="area*vscan*gama^2" dataDxfId="18" totalsRowDxfId="12">
       <calculatedColumnFormula>Tableau1[[#This Row],[Area (*10^3 nm^2)]]*Tableau1[[#This Row],[vitesse (s/scans)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Colonne11" totalsRowFunction="custom">
       <totalsRowFormula>0.09/0.23</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="19" totalsRowDxfId="14">
+    <tableColumn id="12" name="vscan*gamma^2" dataDxfId="16" totalsRowDxfId="11">
       <calculatedColumnFormula>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Colonne13" dataDxfId="18" totalsRowDxfId="13">
+    <tableColumn id="13" name="Colonne13" dataDxfId="15" totalsRowDxfId="10">
       <calculatedColumnFormula>Tableau1[[#This Row],[rac area]]^2*Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="Colonne14"/>
@@ -16667,34 +18017,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:K21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:K21">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="300"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:H21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H21">
     <filterColumn colId="2">
-      <filters>
-        <filter val="5"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A4:K11">
     <sortCondition ref="A1:A21"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Magnification (K)" dataDxfId="12"/>
-    <tableColumn id="2" name="L (nm)" dataDxfId="11"/>
-    <tableColumn id="3" name="Voltage (kV)" dataDxfId="10"/>
-    <tableColumn id="4" name="Closure speed (nm/scan)" dataDxfId="9"/>
-    <tableColumn id="5" name="Position" dataDxfId="8"/>
-    <tableColumn id="6" name="Scan speed (scan/s)" dataDxfId="7"/>
-    <tableColumn id="7" name="Pauses" dataDxfId="6"/>
-    <tableColumn id="8" name="Closure Speed (nm/s)" dataDxfId="5"/>
-    <tableColumn id="9" name="Colonne9" dataDxfId="4"/>
-    <tableColumn id="10" name="Colonne10" dataDxfId="3"/>
-    <tableColumn id="11" name="Colonne11" dataDxfId="2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Magnification (K)" dataDxfId="9"/>
+    <tableColumn id="2" name="L (nm)" dataDxfId="8"/>
+    <tableColumn id="3" name="Voltage (kV)" dataDxfId="7"/>
+    <tableColumn id="4" name="Closure speed (nm/scan)" dataDxfId="6"/>
+    <tableColumn id="5" name="Position" dataDxfId="5"/>
+    <tableColumn id="6" name="Scan speed (scan/s)" dataDxfId="4"/>
+    <tableColumn id="7" name="Pauses" dataDxfId="3"/>
+    <tableColumn id="8" name="Closure Speed (nm/s)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17001,52 +18343,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -17070,7 +18412,7 @@
         <v>1.2</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2">
@@ -17078,7 +18420,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>Tableau1[[#This Row],[vitesse (scans/s)]]*Tableau1[[#This Row],[Magnification]]^2</f>
@@ -17110,7 +18452,7 @@
         <v>1.3</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3">
@@ -17147,7 +18489,7 @@
         <v>1.4</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4">
@@ -17184,7 +18526,7 @@
         <v>2.5</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5">
@@ -17221,7 +18563,7 @@
         <v>1.5</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6">
@@ -17258,7 +18600,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1"/>
       <c r="K7">
@@ -17295,7 +18637,7 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1"/>
       <c r="K8">
@@ -17335,7 +18677,7 @@
         <v>7.6</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17386,7 +18728,7 @@
         <v>7.5</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17437,7 +18779,7 @@
         <v>4.3</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17488,7 +18830,7 @@
         <v>11.7</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17537,13 +18879,13 @@
         <v>1.93</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>11.8</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17585,13 +18927,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>5.3</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17642,7 +18984,7 @@
         <v>5.32</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1">
         <f>1/Tableau1[[#This Row],[vitesse (s/scans)]]</f>
@@ -17837,7 +19179,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="2"/>
       <c r="M26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N26" s="1">
         <f>AVERAGE(N9:N15)</f>
@@ -17862,7 +19204,7 @@
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="N31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O31" s="1" t="e">
         <f>AVERAGE(O14:O20)</f>
@@ -17881,10 +19223,10 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -17976,10 +19318,10 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -18074,13 +19416,13 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -18231,13 +19573,13 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
       </c>
       <c r="H76">
         <v>2.5</v>
@@ -18319,13 +19661,13 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
       </c>
       <c r="H86">
         <v>1.5</v>
@@ -18431,13 +19773,13 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>11</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
       </c>
       <c r="H99">
         <v>2.2000000000000002</v>
@@ -18543,13 +19885,13 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>11</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
       </c>
       <c r="H112">
         <v>2.1</v>
@@ -18655,22 +19997,22 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>11</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
       </c>
       <c r="H125">
         <v>2.2999999999999998</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -18702,7 +20044,7 @@
         <v>7.583333333333333</v>
       </c>
       <c r="K127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -18762,22 +20104,22 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
         <v>9</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
       </c>
       <c r="H135">
         <v>2.4</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -18810,7 +20152,7 @@
         <v>7.5384615384615383</v>
       </c>
       <c r="K137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -18897,22 +20239,22 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
         <v>9</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>11</v>
-      </c>
-      <c r="G148" t="s">
-        <v>13</v>
       </c>
       <c r="H148">
         <v>3.1</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -19045,22 +20387,22 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
         <v>11</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
       </c>
       <c r="H163">
         <v>3.2</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -19232,19 +20574,19 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" t="s">
         <v>9</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I183" t="s">
-        <v>18</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -19606,10 +20948,10 @@
         <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -19641,22 +20983,22 @@
         <v>10</v>
       </c>
       <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" t="s">
         <v>9</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>11</v>
-      </c>
-      <c r="G231" t="s">
-        <v>13</v>
       </c>
       <c r="H231">
         <v>4.0999999999999996</v>
       </c>
       <c r="I231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -19952,28 +21294,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
@@ -20003,7 +21345,7 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="9">
         <f>D2*F2</f>
@@ -20037,7 +21379,7 @@
         <v>0.52757166894373742</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H15" si="1">D3*F3</f>
@@ -20071,7 +21413,7 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="1"/>
@@ -20105,7 +21447,7 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="1"/>
@@ -20139,7 +21481,7 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
@@ -20173,7 +21515,7 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
@@ -20207,7 +21549,7 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="1"/>
@@ -20241,7 +21583,7 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="1"/>
@@ -20275,7 +21617,7 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="1"/>
@@ -20309,7 +21651,7 @@
         <v>0.23447629730832772</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="1"/>
@@ -20343,7 +21685,7 @@
         <v>8.4411467030997986E-2</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="1"/>
@@ -20370,14 +21712,14 @@
         <v>1.93</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>8.4411467030997986E-2</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="1"/>
@@ -20402,14 +21744,14 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0.18992580081974547</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -20440,7 +21782,7 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="1"/>
@@ -20454,7 +21796,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6">
         <v>474814502.04936367</v>
@@ -20487,10 +21829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="72" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20503,48 +21845,36 @@
     <col min="6" max="6" width="17.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="6"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -20564,13 +21894,13 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="17">
         <v>1.0787785486561543</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>100</v>
       </c>
@@ -20590,13 +21920,13 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <v>0.80528539547572087</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>100</v>
       </c>
@@ -20616,13 +21946,13 @@
         <v>0.52757166894373742</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="17">
         <v>0.8388389536205425</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>200</v>
       </c>
@@ -20642,13 +21972,13 @@
         <v>0.75970320327898189</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="17">
         <v>1.3218835737054284</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>100</v>
       </c>
@@ -20668,13 +21998,13 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="17">
         <v>0.4482248899345993</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -20694,13 +22024,13 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="17">
         <v>0.67233733490189895</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>150</v>
       </c>
@@ -20720,13 +22050,13 @@
         <v>0.23447629730832772</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="17">
         <v>0.60729361002856874</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>200</v>
       </c>
@@ -20746,13 +22076,13 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="17">
         <v>0.57109633163159579</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>200</v>
       </c>
@@ -20772,13 +22102,13 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="17">
         <v>0.68716209879921797</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>200</v>
       </c>
@@ -20798,13 +22128,13 @@
         <v>0.13189291723593435</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="17">
         <v>0.63176707356012551</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>150</v>
       </c>
@@ -20824,13 +22154,13 @@
         <v>8.4411467030997986E-2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="17">
         <v>0.30472539598190274</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>100</v>
       </c>
@@ -20850,13 +22180,13 @@
         <v>0.18992580081974547</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="17">
         <v>0.18802654281154801</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>100</v>
       </c>
@@ -20870,20 +22200,20 @@
         <v>1.93</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="17">
         <v>8.4411467030997986E-2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="17">
         <v>0.1629141313698261</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="6:6" hidden="1" x14ac:dyDescent="0.2">

--- a/Synthèse-Experiences/Juillet 27.xlsx
+++ b/Synthèse-Experiences/Juillet 27.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>Magnification</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Number of scans</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>exp a</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>exp b</t>
   </si>
 </sst>
 </file>
@@ -3848,6 +3863,936 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbes!$C$290</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Courbes!$B$291:$B$296</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Courbes!$C$291:$C$296</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1804122928"/>
+        <c:axId val="-2059648800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1804122928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2059648800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2059648800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804122928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbes!$B$305</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Courbes!$A$306:$A$312</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Courbes!$B$306:$B$312</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2023600496"/>
+        <c:axId val="-2075592928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2023600496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075592928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2075592928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2023600496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4740,7 +5685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4829,10 +5774,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$C$2:$C$15</c:f>
+              <c:f>Feuil4!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>150.0</c:v>
                 </c:pt>
@@ -4874,16 +5819,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$H$2:$H$15</c:f>
+              <c:f>Feuil4!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.61</c:v>
                 </c:pt>
@@ -4925,6 +5876,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5216,7 +6173,399 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Courbes!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diameter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Courbes!$E$46:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Courbes!$F$46:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2112261216"/>
+        <c:axId val="2112257968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2112261216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112257968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112257968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112261216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5305,10 +6654,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$C$2:$C$15</c:f>
+              <c:f>Feuil4!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>150.0</c:v>
                 </c:pt>
@@ -5350,16 +6699,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$I$2:$I$15</c:f>
+              <c:f>Feuil4!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.304725395981903</c:v>
                 </c:pt>
@@ -5401,6 +6756,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5692,7 +7053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5781,10 +7142,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$D$2:$D$15</c:f>
+              <c:f>Feuil4!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
@@ -5826,16 +7187,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$H$2:$H$15</c:f>
+              <c:f>Feuil4!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.61</c:v>
                 </c:pt>
@@ -5877,6 +7244,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6168,399 +7541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Courbes!$F$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>diameter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Courbes!$E$46:$E$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Courbes!$F$46:$F$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2112261216"/>
-        <c:axId val="2112257968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2112261216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2112257968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2112257968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2112261216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6649,10 +7630,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$D$2:$D$15</c:f>
+              <c:f>Feuil4!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>500.0</c:v>
                 </c:pt>
@@ -6694,16 +7675,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$I$2:$I$15</c:f>
+              <c:f>Feuil4!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.304725395981903</c:v>
                 </c:pt>
@@ -6745,6 +7732,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7036,7 +8029,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7125,10 +8118,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$G$2:$G$15</c:f>
+              <c:f>Feuil4!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.084411467030998</c:v>
                 </c:pt>
@@ -7170,16 +8163,22 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$I$2:$I$15</c:f>
+              <c:f>Feuil4!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.304725395981903</c:v>
                 </c:pt>
@@ -7221,6 +8220,12 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.321883573705428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7512,7 +8517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -7626,10 +8631,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil4!$G$2:$G$14</c:f>
+              <c:f>Feuil4!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.084411467030998</c:v>
                 </c:pt>
@@ -7668,16 +8673,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.759703203278982</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil4!$H$2:$H$14</c:f>
+              <c:f>Feuil4!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.61</c:v>
                 </c:pt>
@@ -7716,6 +8730,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11392,6 +12415,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18897,6 +20000,1038 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23388,16 +25523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23471,6 +25606,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>797560</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Graphique 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695960</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Graphique 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24039,10 +26234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S283"/>
+  <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView topLeftCell="J122" zoomScale="125" zoomScaleNormal="56" zoomScalePageLayoutView="56" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
+    <sheetView topLeftCell="A70" zoomScale="125" zoomScaleNormal="56" zoomScalePageLayoutView="56" workbookViewId="0">
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26817,6 +29012,13 @@
       <c r="F234">
         <v>61</v>
       </c>
+      <c r="I234">
+        <f>I232/J232</f>
+        <v>0.18803418803418803</v>
+      </c>
+      <c r="J234" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E235">
@@ -27253,6 +29455,163 @@
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C283" s="1"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <f>0.19*A291</f>
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <f t="shared" ref="B292:B296" si="1">0.19*A292</f>
+        <v>0.38</v>
+      </c>
+      <c r="C292">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>27</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="1"/>
+        <v>5.13</v>
+      </c>
+      <c r="C293">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>51</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="1"/>
+        <v>9.69</v>
+      </c>
+      <c r="C294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>65</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="1"/>
+        <v>12.35</v>
+      </c>
+      <c r="C295">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>80</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+      <c r="C296">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>4</v>
+      </c>
+      <c r="B308">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>9</v>
+      </c>
+      <c r="B309">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>14</v>
+      </c>
+      <c r="B310">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>19</v>
+      </c>
+      <c r="B311">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>24</v>
+      </c>
+      <c r="B312">
+        <v>11.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27591,7 +29950,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28122,9 +30481,17 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <f>B18/(0.72*250^2)</f>
+        <v>10551.433378874748</v>
+      </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <f>SQRT(B20)</f>
+        <v>102.7201702630732</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -28146,8 +30513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="84" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28621,41 +30988,89 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>200</v>
+      </c>
+      <c r="D16" s="6">
+        <v>250</v>
+      </c>
       <c r="E16" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="I16" s="17">
+        <f>Tableau2[[#This Row],[Closure speed (nm/scan)]]*Tableau2[[#This Row],[Scan speed (scan/s)]]</f>
+        <v>0.71630000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6">
+        <v>250</v>
+      </c>
       <c r="E17" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I17" s="17">
+        <f>Tableau2[[#This Row],[Closure speed (nm/scan)]]*Tableau2[[#This Row],[Scan speed (scan/s)]]</f>
+        <v>1.6415999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E18" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
         <v>0</v>
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E19" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
         <v>0</v>
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E20" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
         <v>0</v>
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E21" s="6">
         <f>(Tableau2[[#This Row],[Magnification (K)]]*Tableau2[[#This Row],[L (nm)]])^2*10^(-6)</f>
         <v>0</v>
